--- a/Data/Survey 2019 Winter/Data dictionary.xlsx
+++ b/Data/Survey 2019 Winter/Data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psingleton\Box\Research\MPC-559 Travel behavior air quality\Data\Survey 2019 Winter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803B4FB5-4043-4B0D-8546-2234B93B5C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63D450-4D98-4FC4-B98A-699FFD78B116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="TRIP" sheetId="8" r:id="rId7"/>
     <sheet name="PER_final" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="948">
   <si>
     <t>Dataset</t>
   </si>
@@ -1924,9 +1924,6 @@
     <t>I CAN use transportation methods other than my own car (such as walking, bicycling, or public transit)...</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
     <t>Even when it is inconvenient.</t>
   </si>
   <si>
@@ -2873,6 +2870,12 @@
   </si>
   <si>
     <t>Information from final survey</t>
+  </si>
+  <si>
+    <t>Owned or mortgaged</t>
+  </si>
+  <si>
+    <t>Rented</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3239,7 +3242,7 @@
         <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3253,7 @@
         <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3264,7 @@
         <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3272,7 +3275,7 @@
         <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,7 +3286,7 @@
         <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3297,7 @@
         <v>394</v>
       </c>
       <c r="C7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3305,7 +3308,7 @@
         <v>395</v>
       </c>
       <c r="C8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -3384,16 +3387,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3563,6 +3566,12 @@
       <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="G10" t="s">
+        <v>946</v>
+      </c>
+      <c r="H10" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3750,7 +3759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3798,19 +3807,22 @@
         <v>1</v>
       </c>
       <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3824,7 +3836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3844,7 +3856,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3886,7 +3898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3928,7 +3940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4032,16 +4044,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5056,10 +5068,10 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
+        <v>290</v>
+      </c>
+      <c r="H54" t="s">
         <v>289</v>
-      </c>
-      <c r="H54" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5991,16 +6003,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6283,16 +6295,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6359,7 +6371,7 @@
         <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
@@ -6370,22 +6382,22 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
+        <v>812</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>813</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>814</v>
-      </c>
-      <c r="H7" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -6393,64 +6405,64 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>816</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
         <v>817</v>
       </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>818</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>819</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>820</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>821</v>
-      </c>
-      <c r="K8" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>1</v>
@@ -6461,14 +6473,14 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C12" t="s">
         <v>825</v>
       </c>
-      <c r="C12" t="s">
-        <v>826</v>
-      </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
       </c>
@@ -6476,30 +6488,30 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
+        <v>828</v>
+      </c>
+      <c r="H12" t="s">
         <v>829</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>830</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>831</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>832</v>
-      </c>
-      <c r="K12" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
@@ -6508,59 +6520,59 @@
         <v>42</v>
       </c>
       <c r="G13" t="s">
+        <v>828</v>
+      </c>
+      <c r="H13" t="s">
         <v>829</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>830</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>831</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>832</v>
-      </c>
-      <c r="K13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
         <v>828</v>
       </c>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>829</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>830</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>831</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>832</v>
-      </c>
-      <c r="K14" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
@@ -6577,13 +6589,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B16" t="s">
+        <v>834</v>
+      </c>
+      <c r="C16" t="s">
         <v>835</v>
-      </c>
-      <c r="C16" t="s">
-        <v>836</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>0</v>
@@ -6608,10 +6620,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
@@ -6696,16 +6708,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6772,7 +6784,7 @@
         <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
@@ -6786,47 +6798,47 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>816</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>817</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>818</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>819</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>820</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>821</v>
-      </c>
-      <c r="K7" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D9" t="s">
         <v>353</v>
@@ -6843,39 +6855,39 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>837</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
         <v>838</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>839</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>840</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>841</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>842</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>843</v>
-      </c>
-      <c r="L10" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C11" t="s">
         <v>254</v>
@@ -6889,10 +6901,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C12" t="s">
         <v>255</v>
@@ -6906,10 +6918,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C13" t="s">
         <v>256</v>
@@ -6923,10 +6935,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>1</v>
@@ -6937,10 +6949,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>1</v>
@@ -6951,10 +6963,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>1</v>
@@ -6965,10 +6977,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
@@ -6979,10 +6991,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
@@ -6993,10 +7005,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
@@ -7007,10 +7019,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>0</v>
@@ -7021,10 +7033,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>0</v>
@@ -7035,13 +7047,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B22" t="s">
+        <v>854</v>
+      </c>
+      <c r="C22" t="s">
         <v>855</v>
-      </c>
-      <c r="C22" t="s">
-        <v>856</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>0</v>
@@ -7052,13 +7064,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E23" s="4" t="b">
         <v>0</v>
@@ -7069,47 +7081,47 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C24" t="s">
+        <v>857</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
         <v>858</v>
       </c>
-      <c r="E24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>859</v>
-      </c>
-      <c r="H24" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>0</v>
@@ -7118,54 +7130,54 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
+        <v>866</v>
+      </c>
+      <c r="H26" t="s">
         <v>867</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>868</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>869</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>870</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>871</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>872</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>873</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>874</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>875</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>876</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>877</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>878</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>879</v>
-      </c>
-      <c r="T26" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>1</v>
@@ -7176,10 +7188,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E28" s="4" t="b">
         <v>0</v>
@@ -7196,46 +7208,46 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B29" t="s">
+        <v>892</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
         <v>893</v>
       </c>
-      <c r="E29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>894</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>895</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>896</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>897</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>898</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>899</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>900</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>901</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>902</v>
-      </c>
-      <c r="P29" t="s">
-        <v>903</v>
       </c>
       <c r="Q29" t="s">
         <v>65</v>
@@ -7243,7 +7255,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D30" t="s">
         <v>78</v>
@@ -7257,13 +7269,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B31" t="s">
+        <v>881</v>
+      </c>
+      <c r="C31" t="s">
         <v>882</v>
-      </c>
-      <c r="C31" t="s">
-        <v>883</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>0</v>
@@ -7274,13 +7286,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B32" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C32" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E32" s="4" t="b">
         <v>0</v>
@@ -7291,13 +7303,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C33" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E33" s="4" t="b">
         <v>0</v>
@@ -7306,32 +7318,32 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
+        <v>858</v>
+      </c>
+      <c r="H33" t="s">
         <v>859</v>
-      </c>
-      <c r="H33" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D35" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>0</v>
@@ -7342,10 +7354,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B36" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>0</v>
@@ -7380,7 +7392,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D37" t="s">
         <v>78</v>
@@ -7394,10 +7406,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>0</v>
@@ -7426,10 +7438,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>0</v>
@@ -7441,18 +7453,18 @@
         <v>330</v>
       </c>
       <c r="H39" t="s">
+        <v>890</v>
+      </c>
+      <c r="I39" t="s">
         <v>891</v>
-      </c>
-      <c r="I39" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>0</v>
@@ -7537,16 +7549,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -7613,7 +7625,7 @@
         <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
@@ -7627,50 +7639,50 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>816</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>817</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>818</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>819</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>820</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>821</v>
-      </c>
-      <c r="K7" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
@@ -7681,48 +7693,48 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D10" t="s">
+        <v>904</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
         <v>838</v>
       </c>
-      <c r="D10" t="s">
-        <v>905</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>839</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>840</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>841</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>842</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>843</v>
-      </c>
-      <c r="L10" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
@@ -7731,54 +7743,54 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
+        <v>866</v>
+      </c>
+      <c r="H11" t="s">
         <v>867</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>868</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>869</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>870</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>871</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>872</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>873</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>874</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>875</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>876</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>877</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>878</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>879</v>
-      </c>
-      <c r="T11" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
@@ -7789,10 +7801,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
@@ -7803,10 +7815,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>1</v>
@@ -7817,10 +7829,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>1</v>
@@ -7831,10 +7843,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>0</v>
@@ -7845,10 +7857,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>0</v>
@@ -7859,27 +7871,27 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>0</v>
@@ -7896,31 +7908,31 @@
       <c r="I19" t="s">
         <v>265</v>
       </c>
+      <c r="J19" t="s">
+        <v>264</v>
+      </c>
       <c r="K19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N19" t="s">
-        <v>261</v>
-      </c>
-      <c r="O19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>0</v>
@@ -7949,13 +7961,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>0</v>
@@ -7967,18 +7979,18 @@
         <v>330</v>
       </c>
       <c r="H21" t="s">
+        <v>890</v>
+      </c>
+      <c r="I21" t="s">
         <v>891</v>
-      </c>
-      <c r="I21" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D22" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>0</v>
@@ -7989,48 +8001,48 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B23" t="s">
+        <v>837</v>
+      </c>
+      <c r="D23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
         <v>838</v>
       </c>
-      <c r="D23" t="s">
-        <v>918</v>
-      </c>
-      <c r="E23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>839</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>840</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>841</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>842</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>843</v>
-      </c>
-      <c r="L23" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E24" s="4" t="b">
         <v>0</v>
@@ -8039,54 +8051,54 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
+        <v>866</v>
+      </c>
+      <c r="H24" t="s">
         <v>867</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>868</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>869</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>870</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>871</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>872</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>873</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>874</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>875</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>876</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>877</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>878</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>879</v>
-      </c>
-      <c r="T24" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>1</v>
@@ -8097,10 +8109,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>1</v>
@@ -8111,10 +8123,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D27" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>1</v>
@@ -8125,10 +8137,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E28" s="4" t="b">
         <v>1</v>
@@ -8139,10 +8151,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E29" s="4" t="b">
         <v>0</v>
@@ -8153,10 +8165,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>0</v>
@@ -8167,24 +8179,24 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E32" s="4" t="b">
         <v>0</v>
@@ -8195,10 +8207,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E33" s="4" t="b">
         <v>0</v>
@@ -8209,10 +8221,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D34" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>0</v>
@@ -8223,10 +8235,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>0</v>
@@ -8237,10 +8249,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>0</v>
@@ -8251,10 +8263,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D37" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>0</v>
@@ -8265,10 +8277,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>0</v>
@@ -8279,10 +8291,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D39" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>0</v>
@@ -8293,10 +8305,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D40" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>0</v>
@@ -8307,10 +8319,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D41" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E41" s="4" t="b">
         <v>0</v>
@@ -8321,10 +8333,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D42" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E42" s="4" t="b">
         <v>0</v>
@@ -8335,10 +8347,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D43" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E43" s="4" t="b">
         <v>0</v>
@@ -8423,16 +8435,16 @@
         <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8842,7 +8854,7 @@
         <v>408</v>
       </c>
       <c r="D17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>0</v>
@@ -8856,7 +8868,7 @@
         <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
@@ -8870,7 +8882,7 @@
         <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>0</v>
@@ -10285,7 +10297,7 @@
         <v>629</v>
       </c>
       <c r="C71" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E71" s="4" t="b">
         <v>0</v>
@@ -10307,9 +10319,6 @@
       </c>
       <c r="K71" t="s">
         <v>591</v>
-      </c>
-      <c r="L71" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -10320,7 +10329,7 @@
         <v>629</v>
       </c>
       <c r="C72" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E72" s="4" t="b">
         <v>0</v>
@@ -10342,9 +10351,6 @@
       </c>
       <c r="K72" t="s">
         <v>591</v>
-      </c>
-      <c r="L72" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -10355,7 +10361,7 @@
         <v>629</v>
       </c>
       <c r="C73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E73" s="4" t="b">
         <v>0</v>
@@ -10377,9 +10383,6 @@
       </c>
       <c r="K73" t="s">
         <v>591</v>
-      </c>
-      <c r="L73" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -10390,7 +10393,7 @@
         <v>629</v>
       </c>
       <c r="C74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E74" s="4" t="b">
         <v>0</v>
@@ -10412,9 +10415,6 @@
       </c>
       <c r="K74" t="s">
         <v>591</v>
-      </c>
-      <c r="L74" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -10425,7 +10425,7 @@
         <v>629</v>
       </c>
       <c r="C75" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E75" s="4" t="b">
         <v>0</v>
@@ -10447,9 +10447,6 @@
       </c>
       <c r="K75" t="s">
         <v>591</v>
-      </c>
-      <c r="L75" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -10460,7 +10457,7 @@
         <v>629</v>
       </c>
       <c r="C76" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E76" s="4" t="b">
         <v>0</v>
@@ -10482,9 +10479,6 @@
       </c>
       <c r="K76" t="s">
         <v>591</v>
-      </c>
-      <c r="L76" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -10492,7 +10486,7 @@
         <v>468</v>
       </c>
       <c r="D77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E77" s="4" t="b">
         <v>0</v>
@@ -10506,10 +10500,10 @@
         <v>469</v>
       </c>
       <c r="B78" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C78" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E78" s="4" t="b">
         <v>0</v>
@@ -10518,16 +10512,16 @@
         <v>42</v>
       </c>
       <c r="G78" t="s">
+        <v>642</v>
+      </c>
+      <c r="H78" t="s">
         <v>643</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>644</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>645</v>
-      </c>
-      <c r="J78" t="s">
-        <v>646</v>
       </c>
       <c r="K78" t="s">
         <v>614</v>
@@ -10538,10 +10532,10 @@
         <v>470</v>
       </c>
       <c r="B79" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C79" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E79" s="4" t="b">
         <v>0</v>
@@ -10550,16 +10544,16 @@
         <v>42</v>
       </c>
       <c r="G79" t="s">
+        <v>642</v>
+      </c>
+      <c r="H79" t="s">
         <v>643</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>644</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>645</v>
-      </c>
-      <c r="J79" t="s">
-        <v>646</v>
       </c>
       <c r="K79" t="s">
         <v>614</v>
@@ -10570,10 +10564,10 @@
         <v>471</v>
       </c>
       <c r="B80" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C80" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E80" s="4" t="b">
         <v>0</v>
@@ -10582,16 +10576,16 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
+        <v>642</v>
+      </c>
+      <c r="H80" t="s">
         <v>643</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>644</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>645</v>
-      </c>
-      <c r="J80" t="s">
-        <v>646</v>
       </c>
       <c r="K80" t="s">
         <v>614</v>
@@ -10602,10 +10596,10 @@
         <v>472</v>
       </c>
       <c r="B81" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E81" s="4" t="b">
         <v>0</v>
@@ -10614,16 +10608,16 @@
         <v>42</v>
       </c>
       <c r="G81" t="s">
+        <v>642</v>
+      </c>
+      <c r="H81" t="s">
         <v>643</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>644</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>645</v>
-      </c>
-      <c r="J81" t="s">
-        <v>646</v>
       </c>
       <c r="K81" t="s">
         <v>614</v>
@@ -10634,10 +10628,10 @@
         <v>473</v>
       </c>
       <c r="B82" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C82" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E82" s="4" t="b">
         <v>0</v>
@@ -10646,16 +10640,16 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
+        <v>642</v>
+      </c>
+      <c r="H82" t="s">
         <v>643</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>644</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>645</v>
-      </c>
-      <c r="J82" t="s">
-        <v>646</v>
       </c>
       <c r="K82" t="s">
         <v>614</v>
@@ -10666,28 +10660,28 @@
         <v>474</v>
       </c>
       <c r="B83" t="s">
+        <v>641</v>
+      </c>
+      <c r="C83" t="s">
+        <v>651</v>
+      </c>
+      <c r="E83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
         <v>642</v>
       </c>
-      <c r="C83" t="s">
-        <v>652</v>
-      </c>
-      <c r="E83" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>643</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>644</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>645</v>
-      </c>
-      <c r="J83" t="s">
-        <v>646</v>
       </c>
       <c r="K83" t="s">
         <v>614</v>
@@ -10698,28 +10692,28 @@
         <v>475</v>
       </c>
       <c r="B84" t="s">
+        <v>641</v>
+      </c>
+      <c r="C84" t="s">
+        <v>652</v>
+      </c>
+      <c r="E84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
         <v>642</v>
       </c>
-      <c r="C84" t="s">
-        <v>653</v>
-      </c>
-      <c r="E84" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>643</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>644</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>645</v>
-      </c>
-      <c r="J84" t="s">
-        <v>646</v>
       </c>
       <c r="K84" t="s">
         <v>614</v>
@@ -10730,28 +10724,28 @@
         <v>476</v>
       </c>
       <c r="B85" t="s">
+        <v>641</v>
+      </c>
+      <c r="C85" t="s">
+        <v>653</v>
+      </c>
+      <c r="E85" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
         <v>642</v>
       </c>
-      <c r="C85" t="s">
-        <v>654</v>
-      </c>
-      <c r="E85" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>643</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>644</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>645</v>
-      </c>
-      <c r="J85" t="s">
-        <v>646</v>
       </c>
       <c r="K85" t="s">
         <v>614</v>
@@ -10762,28 +10756,28 @@
         <v>477</v>
       </c>
       <c r="B86" t="s">
+        <v>641</v>
+      </c>
+      <c r="C86" t="s">
+        <v>654</v>
+      </c>
+      <c r="E86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
         <v>642</v>
       </c>
-      <c r="C86" t="s">
-        <v>655</v>
-      </c>
-      <c r="E86" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>643</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>644</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>645</v>
-      </c>
-      <c r="J86" t="s">
-        <v>646</v>
       </c>
       <c r="K86" t="s">
         <v>614</v>
@@ -10794,28 +10788,28 @@
         <v>478</v>
       </c>
       <c r="B87" t="s">
+        <v>641</v>
+      </c>
+      <c r="C87" t="s">
+        <v>655</v>
+      </c>
+      <c r="E87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
         <v>642</v>
       </c>
-      <c r="C87" t="s">
-        <v>656</v>
-      </c>
-      <c r="E87" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>643</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>644</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>645</v>
-      </c>
-      <c r="J87" t="s">
-        <v>646</v>
       </c>
       <c r="K87" t="s">
         <v>614</v>
@@ -10826,10 +10820,10 @@
         <v>479</v>
       </c>
       <c r="B88" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C88" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E88" s="4" t="b">
         <v>0</v>
@@ -10861,10 +10855,10 @@
         <v>480</v>
       </c>
       <c r="B89" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C89" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E89" s="4" t="b">
         <v>0</v>
@@ -10896,10 +10890,10 @@
         <v>481</v>
       </c>
       <c r="B90" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C90" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E90" s="4" t="b">
         <v>0</v>
@@ -10931,10 +10925,10 @@
         <v>482</v>
       </c>
       <c r="B91" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C91" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E91" s="4" t="b">
         <v>0</v>
@@ -10966,10 +10960,10 @@
         <v>483</v>
       </c>
       <c r="B92" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C92" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E92" s="4" t="b">
         <v>0</v>
@@ -11001,10 +10995,10 @@
         <v>484</v>
       </c>
       <c r="B93" t="s">
+        <v>656</v>
+      </c>
+      <c r="C93" t="s">
         <v>657</v>
-      </c>
-      <c r="C93" t="s">
-        <v>658</v>
       </c>
       <c r="E93" s="4" t="b">
         <v>0</v>
@@ -11039,7 +11033,7 @@
         <v>615</v>
       </c>
       <c r="C94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E94" s="4" t="b">
         <v>0</v>
@@ -11074,7 +11068,7 @@
         <v>615</v>
       </c>
       <c r="C95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E95" s="4" t="b">
         <v>0</v>
@@ -11109,7 +11103,7 @@
         <v>615</v>
       </c>
       <c r="C96" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E96" s="4" t="b">
         <v>0</v>
@@ -11144,7 +11138,7 @@
         <v>615</v>
       </c>
       <c r="C97" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E97" s="4" t="b">
         <v>0</v>
@@ -11179,7 +11173,7 @@
         <v>616</v>
       </c>
       <c r="C98" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E98" s="4" t="b">
         <v>0</v>
@@ -11214,7 +11208,7 @@
         <v>616</v>
       </c>
       <c r="C99" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E99" s="4" t="b">
         <v>0</v>
@@ -11249,7 +11243,7 @@
         <v>616</v>
       </c>
       <c r="C100" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E100" s="4" t="b">
         <v>0</v>
@@ -11284,7 +11278,7 @@
         <v>616</v>
       </c>
       <c r="C101" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E101" s="4" t="b">
         <v>0</v>
@@ -11316,11 +11310,11 @@
         <v>493</v>
       </c>
       <c r="B102" t="s">
+        <v>663</v>
+      </c>
+      <c r="C102" t="s">
         <v>664</v>
       </c>
-      <c r="C102" t="s">
-        <v>665</v>
-      </c>
       <c r="E102" s="4" t="b">
         <v>0</v>
       </c>
@@ -11328,22 +11322,19 @@
         <v>42</v>
       </c>
       <c r="G102" t="s">
+        <v>669</v>
+      </c>
+      <c r="H102" t="s">
         <v>670</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>671</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>672</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>673</v>
-      </c>
-      <c r="K102" t="s">
-        <v>674</v>
-      </c>
-      <c r="L102" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -11351,10 +11342,10 @@
         <v>494</v>
       </c>
       <c r="B103" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C103" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E103" s="4" t="b">
         <v>0</v>
@@ -11363,22 +11354,19 @@
         <v>42</v>
       </c>
       <c r="G103" t="s">
+        <v>669</v>
+      </c>
+      <c r="H103" t="s">
         <v>670</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>671</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>672</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>673</v>
-      </c>
-      <c r="K103" t="s">
-        <v>674</v>
-      </c>
-      <c r="L103" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -11386,10 +11374,10 @@
         <v>495</v>
       </c>
       <c r="B104" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C104" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E104" s="4" t="b">
         <v>0</v>
@@ -11398,22 +11386,19 @@
         <v>42</v>
       </c>
       <c r="G104" t="s">
+        <v>669</v>
+      </c>
+      <c r="H104" t="s">
         <v>670</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>671</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>672</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>673</v>
-      </c>
-      <c r="K104" t="s">
-        <v>674</v>
-      </c>
-      <c r="L104" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -11421,10 +11406,10 @@
         <v>496</v>
       </c>
       <c r="B105" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C105" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E105" s="4" t="b">
         <v>0</v>
@@ -11433,22 +11418,19 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
+        <v>669</v>
+      </c>
+      <c r="H105" t="s">
         <v>670</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>671</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>672</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>673</v>
-      </c>
-      <c r="K105" t="s">
-        <v>674</v>
-      </c>
-      <c r="L105" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -11456,34 +11438,31 @@
         <v>497</v>
       </c>
       <c r="B106" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C106" t="s">
+        <v>668</v>
+      </c>
+      <c r="E106" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s">
         <v>669</v>
       </c>
-      <c r="E106" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>670</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>671</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>672</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>673</v>
-      </c>
-      <c r="K106" t="s">
-        <v>674</v>
-      </c>
-      <c r="L106" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -11491,7 +11470,7 @@
         <v>498</v>
       </c>
       <c r="B107" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C107" t="s">
         <v>65</v>
@@ -11503,22 +11482,19 @@
         <v>42</v>
       </c>
       <c r="G107" t="s">
+        <v>669</v>
+      </c>
+      <c r="H107" t="s">
         <v>670</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>671</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>672</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>673</v>
-      </c>
-      <c r="K107" t="s">
-        <v>674</v>
-      </c>
-      <c r="L107" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -11540,28 +11516,28 @@
         <v>500</v>
       </c>
       <c r="B109" t="s">
+        <v>675</v>
+      </c>
+      <c r="E109" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" t="s">
         <v>676</v>
       </c>
-      <c r="E109" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>677</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
+        <v>679</v>
+      </c>
+      <c r="J109" t="s">
         <v>678</v>
       </c>
-      <c r="I109" t="s">
+      <c r="K109" t="s">
         <v>680</v>
-      </c>
-      <c r="J109" t="s">
-        <v>679</v>
-      </c>
-      <c r="K109" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -11569,7 +11545,7 @@
         <v>501</v>
       </c>
       <c r="D110" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E110" s="4" t="b">
         <v>0</v>
@@ -11583,7 +11559,7 @@
         <v>502</v>
       </c>
       <c r="D111" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E111" s="4" t="b">
         <v>0</v>
@@ -11592,13 +11568,13 @@
         <v>42</v>
       </c>
       <c r="G111" t="s">
+        <v>682</v>
+      </c>
+      <c r="H111" t="s">
         <v>683</v>
       </c>
-      <c r="H111" t="s">
-        <v>684</v>
-      </c>
       <c r="I111" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -11606,10 +11582,10 @@
         <v>503</v>
       </c>
       <c r="B112" t="s">
+        <v>685</v>
+      </c>
+      <c r="C112" t="s">
         <v>686</v>
-      </c>
-      <c r="C112" t="s">
-        <v>687</v>
       </c>
       <c r="E112" s="4" t="b">
         <v>0</v>
@@ -11623,10 +11599,10 @@
         <v>504</v>
       </c>
       <c r="B113" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C113" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E113" s="4" t="b">
         <v>0</v>
@@ -11640,10 +11616,10 @@
         <v>505</v>
       </c>
       <c r="B114" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C114" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E114" s="4" t="b">
         <v>0</v>
@@ -11657,10 +11633,10 @@
         <v>506</v>
       </c>
       <c r="B115" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C115" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E115" s="4" t="b">
         <v>0</v>
@@ -11674,10 +11650,10 @@
         <v>507</v>
       </c>
       <c r="B116" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C116" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E116" s="4" t="b">
         <v>0</v>
@@ -11691,10 +11667,10 @@
         <v>508</v>
       </c>
       <c r="B117" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C117" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E117" s="4" t="b">
         <v>0</v>
@@ -11708,10 +11684,10 @@
         <v>509</v>
       </c>
       <c r="B118" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E118" s="4" t="b">
         <v>0</v>
@@ -11725,7 +11701,7 @@
         <v>510</v>
       </c>
       <c r="B119" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
@@ -11756,7 +11732,7 @@
         <v>512</v>
       </c>
       <c r="B121" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C121" t="s">
         <v>313</v>
@@ -11773,7 +11749,7 @@
         <v>513</v>
       </c>
       <c r="D122" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E122" s="4" t="b">
         <v>0</v>
@@ -11787,7 +11763,7 @@
         <v>514</v>
       </c>
       <c r="D123" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E123" s="4" t="b">
         <v>0</v>
@@ -11801,7 +11777,7 @@
         <v>515</v>
       </c>
       <c r="D124" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E124" s="4" t="b">
         <v>0</v>
@@ -11815,7 +11791,7 @@
         <v>516</v>
       </c>
       <c r="D125" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E125" s="4" t="b">
         <v>0</v>
@@ -11829,19 +11805,19 @@
         <v>517</v>
       </c>
       <c r="B126" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C126" t="s">
+        <v>701</v>
+      </c>
+      <c r="E126" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" t="s">
         <v>702</v>
-      </c>
-      <c r="E126" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G126" t="s">
-        <v>703</v>
       </c>
       <c r="H126" s="2">
         <v>0.2</v>
@@ -11859,7 +11835,7 @@
         <v>0.8</v>
       </c>
       <c r="M126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -11867,10 +11843,10 @@
         <v>518</v>
       </c>
       <c r="B127" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C127" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E127" s="4" t="b">
         <v>0</v>
@@ -11879,7 +11855,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H127" s="2">
         <v>0.2</v>
@@ -11897,7 +11873,7 @@
         <v>0.8</v>
       </c>
       <c r="M127" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -11905,10 +11881,10 @@
         <v>519</v>
       </c>
       <c r="B128" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C128" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E128" s="4" t="b">
         <v>0</v>
@@ -11917,7 +11893,7 @@
         <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H128" s="2">
         <v>0.2</v>
@@ -11935,7 +11911,7 @@
         <v>0.8</v>
       </c>
       <c r="M128" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -11943,10 +11919,10 @@
         <v>520</v>
       </c>
       <c r="B129" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C129" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E129" s="4" t="b">
         <v>0</v>
@@ -11955,7 +11931,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H129" s="2">
         <v>0.2</v>
@@ -11973,7 +11949,7 @@
         <v>0.8</v>
       </c>
       <c r="M129" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -11981,10 +11957,10 @@
         <v>521</v>
       </c>
       <c r="B130" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C130" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E130" s="4" t="b">
         <v>0</v>
@@ -11993,7 +11969,7 @@
         <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H130" s="2">
         <v>0.2</v>
@@ -12011,7 +11987,7 @@
         <v>0.8</v>
       </c>
       <c r="M130" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -12019,10 +11995,10 @@
         <v>522</v>
       </c>
       <c r="B131" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C131" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E131" s="4" t="b">
         <v>0</v>
@@ -12031,7 +12007,7 @@
         <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H131" s="2">
         <v>0.2</v>
@@ -12049,7 +12025,7 @@
         <v>0.8</v>
       </c>
       <c r="M131" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -12057,10 +12033,10 @@
         <v>523</v>
       </c>
       <c r="B132" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C132" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E132" s="4" t="b">
         <v>0</v>
@@ -12069,7 +12045,7 @@
         <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H132" s="2">
         <v>0.2</v>
@@ -12087,7 +12063,7 @@
         <v>0.8</v>
       </c>
       <c r="M132" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -12095,7 +12071,7 @@
         <v>524</v>
       </c>
       <c r="B133" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
@@ -12107,7 +12083,7 @@
         <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H133" s="2">
         <v>0.2</v>
@@ -12125,7 +12101,7 @@
         <v>0.8</v>
       </c>
       <c r="M133" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -12147,11 +12123,11 @@
         <v>526</v>
       </c>
       <c r="B135" t="s">
+        <v>693</v>
+      </c>
+      <c r="C135" t="s">
         <v>694</v>
       </c>
-      <c r="C135" t="s">
-        <v>695</v>
-      </c>
       <c r="E135" s="4" t="b">
         <v>0</v>
       </c>
@@ -12159,7 +12135,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H135" s="2">
         <v>0.2</v>
@@ -12177,7 +12153,7 @@
         <v>0.8</v>
       </c>
       <c r="M135" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -12185,7 +12161,7 @@
         <v>527</v>
       </c>
       <c r="D136" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E136" s="4" t="b">
         <v>0</v>
@@ -12199,7 +12175,7 @@
         <v>528</v>
       </c>
       <c r="D137" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E137" s="4" t="b">
         <v>0</v>
@@ -12213,7 +12189,7 @@
         <v>529</v>
       </c>
       <c r="D138" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E138" s="4" t="b">
         <v>0</v>
@@ -12227,7 +12203,7 @@
         <v>530</v>
       </c>
       <c r="D139" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E139" s="4" t="b">
         <v>0</v>
@@ -12241,25 +12217,25 @@
         <v>531</v>
       </c>
       <c r="B140" t="s">
+        <v>712</v>
+      </c>
+      <c r="C140" t="s">
+        <v>716</v>
+      </c>
+      <c r="E140" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" t="s">
         <v>713</v>
       </c>
-      <c r="C140" t="s">
-        <v>717</v>
-      </c>
-      <c r="E140" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>714</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>715</v>
-      </c>
-      <c r="I140" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -12267,25 +12243,25 @@
         <v>532</v>
       </c>
       <c r="B141" t="s">
+        <v>712</v>
+      </c>
+      <c r="C141" t="s">
+        <v>717</v>
+      </c>
+      <c r="E141" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" t="s">
         <v>713</v>
       </c>
-      <c r="C141" t="s">
-        <v>718</v>
-      </c>
-      <c r="E141" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>714</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>715</v>
-      </c>
-      <c r="I141" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -12293,25 +12269,25 @@
         <v>533</v>
       </c>
       <c r="B142" t="s">
+        <v>712</v>
+      </c>
+      <c r="C142" t="s">
+        <v>718</v>
+      </c>
+      <c r="E142" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" t="s">
         <v>713</v>
       </c>
-      <c r="C142" t="s">
-        <v>719</v>
-      </c>
-      <c r="E142" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>714</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>715</v>
-      </c>
-      <c r="I142" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -12319,25 +12295,25 @@
         <v>534</v>
       </c>
       <c r="B143" t="s">
+        <v>712</v>
+      </c>
+      <c r="C143" t="s">
+        <v>719</v>
+      </c>
+      <c r="E143" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" t="s">
         <v>713</v>
       </c>
-      <c r="C143" t="s">
-        <v>720</v>
-      </c>
-      <c r="E143" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>714</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>715</v>
-      </c>
-      <c r="I143" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -12345,25 +12321,25 @@
         <v>535</v>
       </c>
       <c r="B144" t="s">
+        <v>712</v>
+      </c>
+      <c r="C144" t="s">
+        <v>720</v>
+      </c>
+      <c r="E144" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" t="s">
         <v>713</v>
       </c>
-      <c r="C144" t="s">
-        <v>721</v>
-      </c>
-      <c r="E144" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>714</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>715</v>
-      </c>
-      <c r="I144" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -12371,25 +12347,25 @@
         <v>536</v>
       </c>
       <c r="B145" t="s">
+        <v>712</v>
+      </c>
+      <c r="C145" t="s">
+        <v>721</v>
+      </c>
+      <c r="E145" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" t="s">
         <v>713</v>
       </c>
-      <c r="C145" t="s">
-        <v>722</v>
-      </c>
-      <c r="E145" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>714</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>715</v>
-      </c>
-      <c r="I145" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -12397,25 +12373,25 @@
         <v>537</v>
       </c>
       <c r="B146" t="s">
+        <v>712</v>
+      </c>
+      <c r="C146" t="s">
+        <v>723</v>
+      </c>
+      <c r="E146" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" t="s">
         <v>713</v>
       </c>
-      <c r="C146" t="s">
-        <v>724</v>
-      </c>
-      <c r="E146" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>714</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>715</v>
-      </c>
-      <c r="I146" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -12423,25 +12399,25 @@
         <v>538</v>
       </c>
       <c r="B147" t="s">
+        <v>712</v>
+      </c>
+      <c r="C147" t="s">
+        <v>722</v>
+      </c>
+      <c r="E147" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
         <v>713</v>
       </c>
-      <c r="C147" t="s">
-        <v>723</v>
-      </c>
-      <c r="E147" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>714</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>715</v>
-      </c>
-      <c r="I147" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -12449,7 +12425,7 @@
         <v>539</v>
       </c>
       <c r="D148" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E148" s="4" t="b">
         <v>0</v>
@@ -12463,7 +12439,7 @@
         <v>540</v>
       </c>
       <c r="B149" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E149" s="4" t="b">
         <v>1</v>
@@ -12477,25 +12453,25 @@
         <v>541</v>
       </c>
       <c r="B150" t="s">
+        <v>726</v>
+      </c>
+      <c r="C150" t="s">
+        <v>730</v>
+      </c>
+      <c r="E150" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" t="s">
         <v>727</v>
       </c>
-      <c r="C150" t="s">
-        <v>731</v>
-      </c>
-      <c r="E150" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>728</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>729</v>
-      </c>
-      <c r="I150" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -12503,25 +12479,25 @@
         <v>542</v>
       </c>
       <c r="B151" t="s">
+        <v>726</v>
+      </c>
+      <c r="C151" t="s">
+        <v>731</v>
+      </c>
+      <c r="E151" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G151" t="s">
         <v>727</v>
       </c>
-      <c r="C151" t="s">
-        <v>732</v>
-      </c>
-      <c r="E151" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>728</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>729</v>
-      </c>
-      <c r="I151" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -12529,25 +12505,25 @@
         <v>543</v>
       </c>
       <c r="B152" t="s">
+        <v>726</v>
+      </c>
+      <c r="C152" t="s">
+        <v>732</v>
+      </c>
+      <c r="E152" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" t="s">
         <v>727</v>
       </c>
-      <c r="C152" t="s">
-        <v>733</v>
-      </c>
-      <c r="E152" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>728</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>729</v>
-      </c>
-      <c r="I152" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -12555,25 +12531,25 @@
         <v>544</v>
       </c>
       <c r="B153" t="s">
+        <v>726</v>
+      </c>
+      <c r="C153" t="s">
+        <v>733</v>
+      </c>
+      <c r="E153" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153" t="s">
         <v>727</v>
       </c>
-      <c r="C153" t="s">
-        <v>734</v>
-      </c>
-      <c r="E153" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>728</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>729</v>
-      </c>
-      <c r="I153" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -12581,25 +12557,25 @@
         <v>545</v>
       </c>
       <c r="B154" t="s">
+        <v>726</v>
+      </c>
+      <c r="C154" t="s">
+        <v>734</v>
+      </c>
+      <c r="E154" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154" t="s">
         <v>727</v>
       </c>
-      <c r="C154" t="s">
-        <v>735</v>
-      </c>
-      <c r="E154" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>728</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>729</v>
-      </c>
-      <c r="I154" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -12607,25 +12583,25 @@
         <v>546</v>
       </c>
       <c r="B155" t="s">
+        <v>726</v>
+      </c>
+      <c r="C155" t="s">
+        <v>735</v>
+      </c>
+      <c r="E155" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155" t="s">
         <v>727</v>
       </c>
-      <c r="C155" t="s">
-        <v>736</v>
-      </c>
-      <c r="E155" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>728</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>729</v>
-      </c>
-      <c r="I155" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -12633,7 +12609,7 @@
         <v>547</v>
       </c>
       <c r="D156" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E156" s="4" t="b">
         <v>0</v>
@@ -12647,7 +12623,7 @@
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E157" s="4" t="b">
         <v>1</v>
